--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>89912.17669180456</v>
+        <v>87507.51979283264</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>300.2811378331996</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>175.1759943278381</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>39.52405900590537</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>87.6215495555529</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>87.62154955555334</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>278.1429131767395</v>
       </c>
       <c r="F5" t="n">
-        <v>395.010572217807</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -984,13 +984,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933827</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851002</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247745</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>150.3013276789172</v>
       </c>
       <c r="W7" t="n">
-        <v>141.455850703672</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,10 +1139,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>162.800821937416</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1184,10 +1184,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271556</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>199.9298361203446</v>
       </c>
       <c r="W10" t="n">
-        <v>65.33384377299815</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.508245380440106e-12</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>163.5389684755806</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>43.6193903906435</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>26.10551535239437</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>109.9946371007651</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.0656089242801</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>136.289280359772</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.2646806878225</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503985</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012035</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>230.0898280815515</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890419</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>62.50448303558164</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>21.63824106824953</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534142</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824998</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>20.9284728855285</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>40.57972681915209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,16 +3901,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>83.29550035394011</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>108.5813113004301</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>921.7704558796256</v>
+        <v>1005.056015304153</v>
       </c>
       <c r="C2" t="n">
-        <v>921.7704558796256</v>
+        <v>1005.056015304153</v>
       </c>
       <c r="D2" t="n">
-        <v>563.5047572728752</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="E2" t="n">
-        <v>563.5047572728752</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
@@ -4334,22 +4334,22 @@
         <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.0187321448631</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877106</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U4" t="n">
-        <v>699.1203903877106</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V4" t="n">
-        <v>444.4359021818237</v>
+        <v>444.4359021818242</v>
       </c>
       <c r="W4" t="n">
-        <v>155.0187321448631</v>
+        <v>155.0187321448636</v>
       </c>
       <c r="X4" t="n">
-        <v>155.0187321448631</v>
+        <v>155.0187321448636</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.0187321448631</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943747</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1308.370295943747</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>1308.370295943747</v>
+        <v>769.4825048886526</v>
       </c>
       <c r="E5" t="n">
-        <v>922.5820433455031</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>77.54416254678286</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4632,16 +4632,16 @@
         <v>458.9189605332737</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
@@ -4750,25 +4750,25 @@
         <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>507.434506214537</v>
       </c>
       <c r="U7" t="n">
-        <v>631.7841389438281</v>
+        <v>218.3316393401806</v>
       </c>
       <c r="V7" t="n">
-        <v>377.0996507379413</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y7" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.200456328342</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1053.237939387931</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>694.9722407811803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4799,55 +4799,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392464</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>214.4252100145765</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C10" t="n">
-        <v>214.4252100145765</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="T10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="U10" t="n">
-        <v>729.201121645011</v>
+        <v>639.3706644025388</v>
       </c>
       <c r="V10" t="n">
-        <v>729.201121645011</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="W10" t="n">
-        <v>663.2073400561239</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="X10" t="n">
-        <v>435.2177891581066</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y10" t="n">
-        <v>214.4252100145765</v>
+        <v>216.6287558445191</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L12" t="n">
-        <v>710.2486053718725</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797035</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797035</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797035</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>140.7528025687996</v>
@@ -5221,28 +5221,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.555541309953</v>
+        <v>1373.509837562355</v>
       </c>
       <c r="S13" t="n">
-        <v>1440.555541309953</v>
+        <v>1190.65500321726</v>
       </c>
       <c r="T13" t="n">
-        <v>1440.555541309953</v>
+        <v>971.0535382402009</v>
       </c>
       <c r="U13" t="n">
-        <v>1275.364664061892</v>
+        <v>681.9783115843986</v>
       </c>
       <c r="V13" t="n">
-        <v>1020.680175856005</v>
+        <v>427.2938233785118</v>
       </c>
       <c r="W13" t="n">
-        <v>731.2630058190439</v>
+        <v>137.8766533415512</v>
       </c>
       <c r="X13" t="n">
-        <v>731.2630058190439</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.2630058190439</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>372.4964262156764</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>867.8220324314351</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1465.200520057987</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>901.237833180299</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="C16" t="n">
-        <v>732.3016502523922</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D16" t="n">
-        <v>582.1850108400564</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E16" t="n">
-        <v>434.2719172576633</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>287.3819697597529</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>120.1858704746328</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>1440.555541309953</v>
       </c>
       <c r="R16" t="n">
-        <v>1373.509837562355</v>
+        <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1190.65500321726</v>
+        <v>1257.700706964857</v>
       </c>
       <c r="T16" t="n">
-        <v>1190.65500321726</v>
+        <v>1038.099241987798</v>
       </c>
       <c r="U16" t="n">
-        <v>1190.65500321726</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.65500321726</v>
+        <v>494.3395271261094</v>
       </c>
       <c r="W16" t="n">
-        <v>901.237833180299</v>
+        <v>204.9223570891488</v>
       </c>
       <c r="X16" t="n">
-        <v>901.237833180299</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="Y16" t="n">
-        <v>901.237833180299</v>
+        <v>93.81666304797187</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741046</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5747,28 +5747,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5832,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>696.7084350851662</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>696.7084350851662</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D22" t="n">
-        <v>546.5917956728305</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="E22" t="n">
-        <v>398.6787020904374</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="F22" t="n">
-        <v>398.6787020904374</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>231.4826028053173</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855603</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199801</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.556199993914</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1327.139029956953</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1099.149479058936</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>878.356899915406</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6005,10 +6005,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1337.934786622704</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>1965.532750177311</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2517.442480416598</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1540.888753373307</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612594</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>637.9025067654818</v>
+        <v>513.853600740073</v>
       </c>
       <c r="C28" t="n">
-        <v>637.9025067654818</v>
+        <v>513.853600740073</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654818</v>
+        <v>363.7369613277373</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>215.8238677453442</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>215.8238677453442</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1268.333101637274</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>1040.343550739252</v>
+        <v>916.2946447138429</v>
       </c>
       <c r="Y28" t="n">
-        <v>819.5509715957215</v>
+        <v>695.5020655703128</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6479,34 +6479,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N30" t="n">
-        <v>1654.485273605118</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2206.395003844405</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6689,22 +6689,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>559.0424953278208</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,55 +7069,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474262</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474262</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>114.9565346495158</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
         <v>2264.108249235165</v>
@@ -7135,10 +7135,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7385,49 +7385,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>710.2486053718725</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P45" t="n">
         <v>2516.421633107662</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2337.284991357604</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.683526380545</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.608299724743</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.923811518856</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.506641481895</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.517090583878</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -22550,13 +22550,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>179.5070472928449</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>77.64121245694992</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>79.62527154307493</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22753,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>130.9631037965414</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462254</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>122.6455059136635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>182.0902649983936</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,22 +23653,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>114.1891974938295</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>115.715018288272</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909865115</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.005432486451923</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>65.31997266427226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.7370056418703</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>56.43317025503953</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>86.11098998263071</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>145.6085800303783</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>144.5956654067404</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>185.1299285698851</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.44497470121448</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1052459.293636001</v>
+        <v>1052459.293636</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1037785.522343505</v>
+        <v>1037785.522343504</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26320,40 @@
         <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>332874.6015064073</v>
+        <v>332874.6015064072</v>
       </c>
       <c r="F2" t="n">
         <v>332874.6015064073</v>
       </c>
       <c r="G2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="K2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="M2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="N2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="O2" t="n">
         <v>343037.3048682527</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>343037.3048682528</v>
-      </c>
-      <c r="P2" t="n">
-        <v>343037.3048682527</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073554</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972778</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>78338.50263942292</v>
+        <v>78338.5026394227</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405262</v>
       </c>
       <c r="E4" t="n">
         <v>761.3882086835451</v>
@@ -26442,16 +26442,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189196</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189195</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1177435.906064031</v>
+        <v>-1177502.738236548</v>
       </c>
       <c r="C6" t="n">
         <v>147412.0675268745</v>
@@ -26528,40 +26528,40 @@
         <v>147412.0675268747</v>
       </c>
       <c r="E6" t="n">
-        <v>-94421.77833353862</v>
+        <v>-94516.29686698542</v>
       </c>
       <c r="F6" t="n">
-        <v>230990.6834738166</v>
+        <v>230896.1649403701</v>
       </c>
       <c r="G6" t="n">
-        <v>225868.1910724537</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="H6" t="n">
-        <v>225868.1910724536</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="I6" t="n">
-        <v>225868.1910724537</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="J6" t="n">
-        <v>8336.988675176297</v>
+        <v>8302.250749740051</v>
       </c>
       <c r="K6" t="n">
-        <v>225868.1910724537</v>
+        <v>225833.453147018</v>
       </c>
       <c r="L6" t="n">
-        <v>225868.1910724539</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="M6" t="n">
-        <v>140813.1631369418</v>
+        <v>140778.425211506</v>
       </c>
       <c r="N6" t="n">
-        <v>225868.1910724536</v>
+        <v>225833.453147018</v>
       </c>
       <c r="O6" t="n">
-        <v>225868.1910724537</v>
+        <v>225833.4531470179</v>
       </c>
       <c r="P6" t="n">
-        <v>225868.1910724536</v>
+        <v>225833.453147018</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,19 +26811,19 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>82.45270383028094</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>289.7107742788561</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.7874568955223</v>
       </c>
       <c r="F5" t="n">
-        <v>11.86547352390448</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27704,13 +27704,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27822,19 +27822,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>101.8363156449108</v>
       </c>
       <c r="W7" t="n">
-        <v>145.067147632919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,10 +27859,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>219.1295481348458</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.47773633174634</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,10 +28014,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,13 +28068,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>52.20780720348338</v>
       </c>
       <c r="W10" t="n">
-        <v>221.1891545635929</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29478,7 +29478,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>422.1299181110993</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31859,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>419.3361492447676</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,13 +32312,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>553.392502062293</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32570,7 +32570,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32704,7 +32704,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32789,13 +32789,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>169.9530009943068</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>632.5879274568745</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.2458225991924</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822597</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>211.5147800288493</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>320.9147064709964</v>
+        <v>499.3768644016567</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33655,34 +33655,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N39" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,34 +34214,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>608.2694430035901</v>
+        <v>579.5299594447131</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,13 +34436,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,19 +34451,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>764.2478901092629</v>
+        <v>338.130958502898</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,13 +34472,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>283.5755383312251</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35507,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>281.4947102704086</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>414.8381222824188</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36218,7 +36218,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36294,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066241</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36437,13 +36437,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>35.9785935799765</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>490.4538935348562</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.904110515859</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790075</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>77.5403726145191</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>189.5729943876631</v>
+        <v>368.0351523183234</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N39" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>469.7150632237159</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>632.9061780259296</v>
+        <v>206.7892464195647</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
